--- a/Team-Data/2020-21/1-17-2020-21.xlsx
+++ b/Team-Data/2020-21/1-17-2020-21.xlsx
@@ -3049,16 +3049,16 @@
         <v>108.7</v>
       </c>
       <c r="BN3" t="n">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="BO3" t="n">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="BP3" t="n">
         <v>109</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BR3" t="n">
         <v>1.7</v>
@@ -3073,7 +3073,7 @@
         <v>16.5</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
       <c r="BW3" t="n">
         <v>0.73</v>
@@ -3091,16 +3091,16 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="CB3" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.21</v>
+        <v>100.29</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.51000000000001</v>
+        <v>83.58</v>
       </c>
       <c r="CE3" t="n">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="CF3" t="n">
         <v>0.506</v>
@@ -3145,7 +3145,7 @@
         <v>21</v>
       </c>
       <c r="CT3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CU3" t="n">
         <v>22</v>
@@ -3203,7 +3203,7 @@
         <v>0.155</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
       <c r="DM3" t="n">
         <v>0.53</v>
@@ -3212,7 +3212,7 @@
         <v>0.263</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="DP3" t="n">
         <v>0.27</v>
@@ -3251,7 +3251,7 @@
         <v>22</v>
       </c>
       <c r="EB3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="EC3" t="n">
         <v>21</v>
@@ -3648,16 +3648,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="IY3" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="IZ3" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="JA3" t="n">
         <v>22.3</v>
       </c>
       <c r="JB3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="JC3" t="n">
         <v>7.8</v>
@@ -3735,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="KB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="KC3" t="n">
         <v>16</v>
@@ -4973,7 +4973,7 @@
         <v>4</v>
       </c>
       <c r="CL5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="CM5" t="n">
         <v>11</v>
@@ -7772,7 +7772,7 @@
         <v>25</v>
       </c>
       <c r="CS8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CT8" t="n">
         <v>21</v>
@@ -7884,7 +7884,7 @@
         <v>9</v>
       </c>
       <c r="EC8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="ED8" t="n">
         <v>10</v>
@@ -8196,7 +8196,7 @@
         <v>11</v>
       </c>
       <c r="HY8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="HZ8" t="n">
         <v>13</v>
@@ -8698,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="CS9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CT9" t="n">
         <v>4</v>
@@ -8810,7 +8810,7 @@
         <v>7</v>
       </c>
       <c r="EC9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="ED9" t="n">
         <v>10</v>
@@ -9122,7 +9122,7 @@
         <v>30</v>
       </c>
       <c r="HY9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="HZ9" t="n">
         <v>10</v>
@@ -9386,16 +9386,16 @@
         <v>11.2</v>
       </c>
       <c r="S10" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
         <v>24.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -9528,10 +9528,10 @@
         <v>591</v>
       </c>
       <c r="BM10" t="n">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="BN10" t="n">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="BO10" t="n">
         <v>110.4</v>
@@ -9549,7 +9549,7 @@
         <v>0.629</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="BU10" t="n">
         <v>17.4</v>
@@ -9558,13 +9558,13 @@
         <v>0.284</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.495</v>
@@ -9576,13 +9576,13 @@
         <v>101.2</v>
       </c>
       <c r="CC10" t="n">
-        <v>99.17</v>
+        <v>99.25</v>
       </c>
       <c r="CD10" t="n">
-        <v>82.64</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="CE10" t="n">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="CF10" t="n">
         <v>0.463</v>
@@ -9603,7 +9603,7 @@
         <v>17</v>
       </c>
       <c r="CL10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CM10" t="n">
         <v>23</v>
@@ -9615,7 +9615,7 @@
         <v>8</v>
       </c>
       <c r="CP10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CQ10" t="n">
         <v>19</v>
@@ -9624,10 +9624,10 @@
         <v>7</v>
       </c>
       <c r="CS10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CT10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CU10" t="n">
         <v>7</v>
@@ -9682,7 +9682,7 @@
         <v>0.241</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="DL10" t="n">
         <v>0.284</v>
@@ -9694,10 +9694,10 @@
         <v>0.262</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.171</v>
+        <v>0.17</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.263</v>
+        <v>0.262</v>
       </c>
       <c r="DQ10" t="n">
         <v>17</v>
@@ -9736,7 +9736,7 @@
         <v>2</v>
       </c>
       <c r="EC10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="ED10" t="n">
         <v>10</v>
@@ -10003,10 +10003,10 @@
         <v>111.3</v>
       </c>
       <c r="HJ10" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="HL10" t="n">
         <v>8.4</v>
@@ -10048,7 +10048,7 @@
         <v>28</v>
       </c>
       <c r="HY10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="HZ10" t="n">
         <v>9</v>
@@ -11455,7 +11455,7 @@
         <v>26</v>
       </c>
       <c r="CL12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CM12" t="n">
         <v>16</v>
@@ -12069,7 +12069,7 @@
         <v>9</v>
       </c>
       <c r="KB12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="KC12" t="n">
         <v>27</v>
@@ -12402,7 +12402,7 @@
         <v>23</v>
       </c>
       <c r="CS13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CT13" t="n">
         <v>25</v>
@@ -12514,7 +12514,7 @@
         <v>6</v>
       </c>
       <c r="EC13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ED13" t="n">
         <v>10</v>
@@ -12826,7 +12826,7 @@
         <v>20</v>
       </c>
       <c r="HY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="HZ13" t="n">
         <v>3</v>
@@ -13331,7 +13331,7 @@
         <v>9</v>
       </c>
       <c r="CT14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CU14" t="n">
         <v>16</v>
@@ -13437,7 +13437,7 @@
         <v>16</v>
       </c>
       <c r="EB14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="EC14" t="n">
         <v>9</v>
@@ -16109,7 +16109,7 @@
         <v>22</v>
       </c>
       <c r="CT17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CU17" t="n">
         <v>30</v>
@@ -16699,7 +16699,7 @@
         <v>19</v>
       </c>
       <c r="KB17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="KC17" t="n">
         <v>30</v>
@@ -24440,7 +24440,7 @@
         <v>19</v>
       </c>
       <c r="CS26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT26" t="n">
         <v>20</v>
@@ -24552,7 +24552,7 @@
         <v>21</v>
       </c>
       <c r="EC26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="ED26" t="n">
         <v>10</v>
@@ -24864,7 +24864,7 @@
         <v>17</v>
       </c>
       <c r="HY26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="HZ26" t="n">
         <v>11</v>
@@ -25357,7 +25357,7 @@
         <v>17</v>
       </c>
       <c r="CP27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CQ27" t="n">
         <v>12</v>
@@ -26271,7 +26271,7 @@
         <v>10</v>
       </c>
       <c r="CL28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CM28" t="n">
         <v>10</v>

--- a/Team-Data/2020-21/1-17-2020-21.xlsx
+++ b/Team-Data/2020-21/1-17-2020-21.xlsx
@@ -811,16 +811,16 @@
         <v>1.2</v>
       </c>
       <c r="AD2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF2" t="n">
         <v>17</v>
       </c>
-      <c r="AE2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>16</v>
-      </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -835,7 +835,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM2" t="n">
         <v>11</v>
@@ -877,13 +877,13 @@
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA2" t="n">
         <v>13</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -915,160 +915,160 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.667</v>
+        <v>0.727</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>41.3</v>
+        <v>42.8</v>
       </c>
       <c r="J3" t="n">
-        <v>88.3</v>
+        <v>88.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.468</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="M3" t="n">
-        <v>33.3</v>
+        <v>32.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.366</v>
+        <v>0.394</v>
       </c>
       <c r="O3" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P3" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.746</v>
+        <v>0.762</v>
       </c>
       <c r="R3" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S3" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="T3" t="n">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>23.4</v>
       </c>
       <c r="V3" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.1</v>
+        <v>19.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.8</v>
+        <v>114</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
         <v>2</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>5</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BB3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -1178,52 +1178,52 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL4" t="n">
         <v>6</v>
       </c>
       <c r="AM4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN4" t="n">
         <v>3</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>4</v>
       </c>
       <c r="AT4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
         <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1384,10 +1384,10 @@
         <v>12</v>
       </c>
       <c r="AM5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1396,13 +1396,13 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>9</v>
       </c>
       <c r="AS5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
         <v>16</v>
@@ -1411,13 +1411,13 @@
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>22</v>
@@ -1426,10 +1426,10 @@
         <v>9</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
         <v>15</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -1461,142 +1461,142 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.385</v>
+        <v>0.333</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="J6" t="n">
-        <v>87.90000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.479</v>
+        <v>0.476</v>
       </c>
       <c r="L6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="M6" t="n">
-        <v>35.5</v>
+        <v>36.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.38</v>
+        <v>0.385</v>
       </c>
       <c r="O6" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.799</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="S6" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="T6" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="U6" t="n">
-        <v>25.6</v>
+        <v>25.1</v>
       </c>
       <c r="V6" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z6" t="n">
         <v>21.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB6" t="n">
         <v>116.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.2</v>
+        <v>-4.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
         <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM6" t="n">
         <v>12</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>8</v>
       </c>
       <c r="AO6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
         <v>25</v>
@@ -1608,13 +1608,13 @@
         <v>27</v>
       </c>
       <c r="BA6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
       </c>
       <c r="BC6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -1721,37 +1721,37 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI7" t="n">
         <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
         <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>28</v>
@@ -1763,7 +1763,7 @@
         <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS7" t="n">
         <v>27</v>
@@ -1775,28 +1775,28 @@
         <v>20</v>
       </c>
       <c r="AV7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW7" t="n">
         <v>2</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
         <v>7</v>
       </c>
       <c r="BA7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB7" t="n">
         <v>30</v>
       </c>
       <c r="BC7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -1825,161 +1825,161 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="H8" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I8" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="M8" t="n">
         <v>39.3</v>
       </c>
-      <c r="J8" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="L8" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>38.6</v>
-      </c>
       <c r="N8" t="n">
-        <v>0.343</v>
+        <v>0.35</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9</v>
+        <v>17.5</v>
       </c>
       <c r="P8" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.728</v>
+        <v>0.738</v>
       </c>
       <c r="R8" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="S8" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="T8" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="U8" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.7</v>
+        <v>109.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV8" t="n">
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC8" t="n">
         <v>6</v>
       </c>
-      <c r="BB8" t="n">
-        <v>22</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>10</v>
-      </c>
       <c r="BD8" t="n">
         <v>10</v>
       </c>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -2007,94 +2007,94 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48.8</v>
       </c>
       <c r="I9" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="J9" t="n">
-        <v>88.7</v>
+        <v>87.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.483</v>
+        <v>0.491</v>
       </c>
       <c r="L9" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="M9" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="N9" t="n">
         <v>0.377</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>17.3</v>
       </c>
       <c r="P9" t="n">
-        <v>22.7</v>
+        <v>23.3</v>
       </c>
       <c r="Q9" t="n">
         <v>0.739</v>
       </c>
       <c r="R9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T9" t="n">
-        <v>43.2</v>
+        <v>42.4</v>
       </c>
       <c r="U9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="V9" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="W9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>115.4</v>
+        <v>116.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>2</v>
@@ -2103,10 +2103,10 @@
         <v>5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
         <v>16</v>
@@ -2115,52 +2115,52 @@
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AQ9" t="n">
         <v>21</v>
       </c>
       <c r="AR9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX9" t="n">
         <v>24</v>
       </c>
       <c r="AY9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>1</v>
       </c>
       <c r="BB9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -2234,16 +2234,16 @@
         <v>11.2</v>
       </c>
       <c r="S10" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
         <v>24.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2267,13 +2267,13 @@
         <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>28</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG10" t="n">
         <v>30</v>
@@ -2291,16 +2291,16 @@
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2321,28 +2321,28 @@
         <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA10" t="n">
         <v>9</v>
       </c>
-      <c r="AX10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>8</v>
-      </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -2449,16 +2449,16 @@
         <v>-4</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
@@ -2473,7 +2473,7 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
         <v>9</v>
@@ -2491,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="AR11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS11" t="n">
         <v>12</v>
@@ -2509,10 +2509,10 @@
         <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2521,10 +2521,10 @@
         <v>5</v>
       </c>
       <c r="BB11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -2631,16 +2631,16 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
@@ -2661,40 +2661,40 @@
         <v>10</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>20</v>
       </c>
       <c r="AR12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT12" t="n">
         <v>21</v>
       </c>
       <c r="AU12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV12" t="n">
         <v>25</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>12</v>
@@ -2703,7 +2703,7 @@
         <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -2735,160 +2735,160 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.615</v>
+        <v>0.667</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>43.1</v>
+        <v>43.6</v>
       </c>
       <c r="J13" t="n">
-        <v>90</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.479</v>
+        <v>0.484</v>
       </c>
       <c r="L13" t="n">
         <v>11.8</v>
       </c>
       <c r="M13" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="O13" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="P13" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.747</v>
+        <v>0.751</v>
       </c>
       <c r="R13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="S13" t="n">
-        <v>33.9</v>
+        <v>34.5</v>
       </c>
       <c r="T13" t="n">
-        <v>42.3</v>
+        <v>43.1</v>
       </c>
       <c r="U13" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="V13" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="W13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="X13" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
         <v>19.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>112.9</v>
+        <v>114.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>18</v>
       </c>
       <c r="AR13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT13" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AU13" t="n">
         <v>6</v>
       </c>
       <c r="AV13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW13" t="n">
         <v>3</v>
       </c>
       <c r="AX13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BC13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -2917,106 +2917,106 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.714</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>41.2</v>
+        <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>84.7</v>
+        <v>84.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.487</v>
+        <v>0.481</v>
       </c>
       <c r="L14" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="M14" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.44</v>
+        <v>0.436</v>
       </c>
       <c r="O14" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P14" t="n">
         <v>20.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.829</v>
+        <v>0.839</v>
       </c>
       <c r="R14" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>41.9</v>
+        <v>41.2</v>
       </c>
       <c r="U14" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="W14" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="X14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>2.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA14" t="n">
         <v>18.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>114.9</v>
+        <v>113.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
         <v>5</v>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3040,37 +3040,37 @@
         <v>20</v>
       </c>
       <c r="AS14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AT14" t="n">
         <v>30</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
         <v>29</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -3192,13 +3192,13 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL15" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>18</v>
@@ -3216,10 +3216,10 @@
         <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS15" t="n">
         <v>2</v>
@@ -3234,7 +3234,7 @@
         <v>18</v>
       </c>
       <c r="AW15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
         <v>3</v>
@@ -3249,7 +3249,7 @@
         <v>15</v>
       </c>
       <c r="BB15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="n">
         <v>1</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -3299,10 +3299,10 @@
         <v>41.7</v>
       </c>
       <c r="J16" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L16" t="n">
         <v>10</v>
@@ -3323,7 +3323,7 @@
         <v>0.767</v>
       </c>
       <c r="R16" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S16" t="n">
         <v>35.1</v>
@@ -3359,19 +3359,19 @@
         <v>-1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3386,10 +3386,10 @@
         <v>27</v>
       </c>
       <c r="AM16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3401,13 +3401,13 @@
         <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
         <v>4</v>
@@ -3431,10 +3431,10 @@
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -3541,16 +3541,16 @@
         <v>-4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>4</v>
@@ -3562,13 +3562,13 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN17" t="n">
         <v>16</v>
@@ -3577,7 +3577,7 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ17" t="n">
         <v>13</v>
@@ -3586,16 +3586,16 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU17" t="n">
         <v>5</v>
       </c>
       <c r="AV17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW17" t="n">
         <v>26</v>
@@ -3607,7 +3607,7 @@
         <v>4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
@@ -3616,7 +3616,7 @@
         <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -3723,13 +3723,13 @@
         <v>10.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF18" t="n">
         <v>3</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>2</v>
       </c>
       <c r="AG18" t="n">
         <v>3</v>
@@ -3744,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL18" t="n">
         <v>2</v>
@@ -3762,7 +3762,7 @@
         <v>22</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
@@ -3792,7 +3792,7 @@
         <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>2</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3935,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>20</v>
@@ -3944,7 +3944,7 @@
         <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3959,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW19" t="n">
         <v>17</v>
@@ -3971,10 +3971,10 @@
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>23</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -4009,97 +4009,97 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>0.417</v>
+        <v>0.364</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>39.9</v>
+        <v>39.5</v>
       </c>
       <c r="J20" t="n">
         <v>85.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.466</v>
+        <v>0.46</v>
       </c>
       <c r="L20" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M20" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.334</v>
+        <v>0.324</v>
       </c>
       <c r="O20" t="n">
-        <v>17.8</v>
+        <v>16.9</v>
       </c>
       <c r="P20" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.717</v>
+        <v>0.707</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="T20" t="n">
         <v>48.3</v>
       </c>
       <c r="U20" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V20" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>107.8</v>
+        <v>105.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="AD20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF20" t="n">
         <v>17</v>
       </c>
-      <c r="AE20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>16</v>
-      </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI20" t="n">
         <v>19</v>
@@ -4114,22 +4114,22 @@
         <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ20" t="n">
         <v>28</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
         <v>8</v>
@@ -4138,31 +4138,31 @@
         <v>4</v>
       </c>
       <c r="AU20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW20" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BC20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>0.429</v>
+        <v>0.385</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
@@ -4209,76 +4209,76 @@
         <v>38.2</v>
       </c>
       <c r="J21" t="n">
-        <v>84.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L21" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="M21" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O21" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P21" t="n">
         <v>20.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.752</v>
+        <v>0.747</v>
       </c>
       <c r="R21" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S21" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="T21" t="n">
-        <v>46.1</v>
+        <v>45.5</v>
       </c>
       <c r="U21" t="n">
         <v>22</v>
       </c>
       <c r="V21" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W21" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="X21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.8</v>
+        <v>-5.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
         <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -4299,25 +4299,25 @@
         <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP21" t="n">
         <v>25</v>
       </c>
-      <c r="AP21" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
         <v>28</v>
@@ -4326,16 +4326,16 @@
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>23</v>
@@ -4344,7 +4344,7 @@
         <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -4451,19 +4451,19 @@
         <v>-6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>27</v>
@@ -4475,22 +4475,22 @@
         <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR22" t="n">
         <v>29</v>
@@ -4499,13 +4499,13 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW22" t="n">
         <v>25</v>
@@ -4520,10 +4520,10 @@
         <v>11</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC22" t="n">
         <v>27</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -4633,16 +4633,16 @@
         <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
@@ -4660,7 +4660,7 @@
         <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>30</v>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>7</v>
@@ -4690,22 +4690,22 @@
         <v>5</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ23" t="n">
         <v>1</v>
       </c>
       <c r="BA23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>28</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -4818,25 +4818,25 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG24" t="n">
         <v>7</v>
       </c>
-      <c r="AG24" t="n">
-        <v>6</v>
-      </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
@@ -4848,13 +4848,13 @@
         <v>17</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR24" t="n">
         <v>16</v>
@@ -4872,25 +4872,25 @@
         <v>28</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
         <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
       </c>
       <c r="BB24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -4997,16 +4997,16 @@
         <v>3.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="n">
         <v>4</v>
@@ -5018,16 +5018,16 @@
         <v>26</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM25" t="n">
         <v>8</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
         <v>21</v>
@@ -5045,7 +5045,7 @@
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AU25" t="n">
         <v>9</v>
@@ -5063,16 +5063,16 @@
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
         <v>17</v>
       </c>
       <c r="BC25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -5179,19 +5179,19 @@
         <v>0.5</v>
       </c>
       <c r="AD26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF26" t="n">
         <v>8</v>
       </c>
-      <c r="AE26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>7</v>
-      </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5209,13 +5209,13 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
         <v>4</v>
@@ -5242,16 +5242,16 @@
         <v>18</v>
       </c>
       <c r="AY26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA26" t="n">
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC26" t="n">
         <v>13</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -5283,157 +5283,157 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" t="n">
-        <v>0.357</v>
+        <v>0.385</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="J27" t="n">
-        <v>87.90000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.474</v>
+        <v>0.471</v>
       </c>
       <c r="L27" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="M27" t="n">
-        <v>31.6</v>
+        <v>31</v>
       </c>
       <c r="N27" t="n">
-        <v>0.369</v>
+        <v>0.372</v>
       </c>
       <c r="O27" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="P27" t="n">
-        <v>26.4</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.729</v>
+        <v>0.721</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S27" t="n">
-        <v>32.4</v>
+        <v>32.9</v>
       </c>
       <c r="T27" t="n">
-        <v>42.4</v>
+        <v>43.1</v>
       </c>
       <c r="U27" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="V27" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="W27" t="n">
         <v>6.1</v>
       </c>
       <c r="X27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>114.3</v>
+        <v>113.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG27" t="n">
         <v>21</v>
       </c>
-      <c r="AF27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>26</v>
-      </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AR27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW27" t="n">
         <v>28</v>
       </c>
       <c r="AX27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB27" t="n">
         <v>11</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>9</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -5543,22 +5543,22 @@
         <v>-0.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>10</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>1</v>
@@ -5570,7 +5570,7 @@
         <v>25</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN28" t="n">
         <v>15</v>
@@ -5588,22 +5588,22 @@
         <v>17</v>
       </c>
       <c r="AS28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
         <v>7</v>
       </c>
       <c r="AU28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
       </c>
       <c r="AW28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>29</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -5725,16 +5725,16 @@
         <v>-0.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
         <v>19</v>
@@ -5755,16 +5755,16 @@
         <v>1</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR29" t="n">
         <v>18</v>
@@ -5779,13 +5779,13 @@
         <v>17</v>
       </c>
       <c r="AV29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY29" t="n">
         <v>28</v>
@@ -5794,10 +5794,10 @@
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
         <v>16</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -5829,103 +5829,103 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="J30" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="n">
-        <v>0.462</v>
+        <v>0.458</v>
       </c>
       <c r="L30" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="M30" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="N30" t="n">
-        <v>0.397</v>
+        <v>0.396</v>
       </c>
       <c r="O30" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="P30" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.701</v>
       </c>
       <c r="R30" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>38.2</v>
+        <v>38.9</v>
       </c>
       <c r="T30" t="n">
-        <v>49.3</v>
+        <v>50.4</v>
       </c>
       <c r="U30" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W30" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X30" t="n">
         <v>5.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>110.5</v>
+        <v>110.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF30" t="n">
         <v>3</v>
       </c>
-      <c r="AF30" t="n">
-        <v>2</v>
-      </c>
       <c r="AG30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH30" t="n">
         <v>19</v>
       </c>
       <c r="AI30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -5937,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="AN30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO30" t="n">
         <v>30</v>
@@ -5949,7 +5949,7 @@
         <v>29</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AS30" t="n">
         <v>1</v>
@@ -5958,10 +5958,10 @@
         <v>1</v>
       </c>
       <c r="AU30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV30" t="n">
         <v>23</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>29</v>
@@ -5973,10 +5973,10 @@
         <v>12</v>
       </c>
       <c r="AZ30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB30" t="n">
         <v>16</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6116,31 +6116,31 @@
         <v>14</v>
       </c>
       <c r="AM31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV31" t="n">
         <v>6</v>
@@ -6152,7 +6152,7 @@
         <v>29</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>30</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-17-2020-21</t>
+          <t>2021-01-17</t>
         </is>
       </c>
     </row>
